--- a/data/trans_dic/P23_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>6,73%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>12,15%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,64%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 19,48</t>
+          <t>7,3; 18,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 13,39</t>
+          <t>3,68; 12,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 13,56</t>
+          <t>1,5; 9,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 25,51</t>
+          <t>5,79; 19,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 18,63</t>
+          <t>8,17; 23,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,55</t>
+          <t>11,72; 27,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 12,18</t>
+          <t>7,01; 17,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 12,42</t>
+          <t>4,33; 12,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 16,5</t>
+          <t>3,95; 11,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,92</t>
+          <t>7,1; 19,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,79</t>
+          <t>2,55; 12,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 16,65</t>
+          <t>6,37; 18,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 15,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 10,6</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 8,58</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 17,3</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 16,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 20,38</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>14,89%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,99%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>19,3%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>14,65%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 22,85</t>
+          <t>10,46; 22,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,96</t>
+          <t>6,15; 16,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 21,88</t>
+          <t>6,61; 23,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 21,85</t>
+          <t>14,9; 36,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,06; 27,22</t>
+          <t>8,67; 22,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,84; 35,12</t>
+          <t>11,18; 26,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 26,9</t>
+          <t>14,52; 26,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 21,67</t>
+          <t>21,2; 34,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 22,41</t>
+          <t>16,27; 26,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 23,69</t>
+          <t>19,48; 33,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,45; 21,34</t>
+          <t>9,95; 21,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 19,08</t>
+          <t>11,95; 23,46</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 21,96</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15,14; 22,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 22,49</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 31,65</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 19,53</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 22,19</t>
         </is>
       </c>
     </row>
@@ -941,57 +1110,87 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>30,5%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>22,78%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>29,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>30,04%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>28,32%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>25,86%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>23,07%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>30,61%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>26,21%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 37,17</t>
+          <t>20,75; 34,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 30,05</t>
+          <t>16,47; 29,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 30,93</t>
+          <t>13,54; 28,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 30,87</t>
+          <t>24,12; 37,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,83; 36,43</t>
+          <t>17,39; 29,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,68; 34,39</t>
+          <t>19,02; 33,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,35; 30,13</t>
+          <t>25,82; 36,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,44; 35,83</t>
+          <t>24,85; 33,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,94; 33,63</t>
+          <t>21,89; 30,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,41; 30,25</t>
+          <t>20,2; 30,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 28,05</t>
+          <t>24,38; 35,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,26; 31,25</t>
+          <t>24,37; 37,12</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 33,29</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21,81; 29,84</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19,42; 27,37</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 31,89</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 30,77</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 32,71</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>37,84%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>25,59%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>29,53%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>29,91%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35,7%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 25,69</t>
+          <t>13,98; 25,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 25,89</t>
+          <t>15,41; 26,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 25,55</t>
+          <t>15,1; 26,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 35,42</t>
+          <t>17,7; 28,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,39; 35,86</t>
+          <t>22,15; 35,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 41,0</t>
+          <t>27,56; 41,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 35,62</t>
+          <t>24,32; 35,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,54; 37,33</t>
+          <t>31,48; 42,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,15; 29,27</t>
+          <t>26,89; 35,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,57; 31,87</t>
+          <t>30,05; 41,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,36; 29,18</t>
+          <t>25,83; 37,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,5; 34,26</t>
+          <t>31,77; 44,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,98; 28,56</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24,83; 31,78</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 29,46</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>25,45; 33,68</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>24,97; 34,57</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 40,54</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>31,34%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>32,07%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>35,36%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36,89%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37,66%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>26,07%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>28,72%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>34,27%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>28,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>36,89%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>26,58%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>28,25%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>24,58%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>34,27%</t>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>36,55%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,92; 27,74</t>
+          <t>15,29; 27,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,56; 27,87</t>
+          <t>17,79; 28,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,04; 27,36</t>
+          <t>16,2; 27,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,34; 39,02</t>
+          <t>24,22; 38,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,45; 38,93</t>
+          <t>24,89; 38,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,79; 40,53</t>
+          <t>29,0; 42,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 33,76</t>
+          <t>25,24; 37,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,91; 43,54</t>
+          <t>28,53; 41,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,26; 31,46</t>
+          <t>23,08; 34,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 32,31</t>
+          <t>32,08; 47,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,49; 28,41</t>
+          <t>29,98; 43,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,92; 38,82</t>
+          <t>30,95; 44,64</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>21,82; 30,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 32,96</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 29,06</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>30,9; 41,22</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>29,77; 39,44</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>31,92; 41,92</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>31,72%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26,96%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19,75%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>31,09%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22,88%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>21,02%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>18,36%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>38,14%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>39,47%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>31,36%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,08; 29,63</t>
+          <t>10,76; 27,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,82; 29,99</t>
+          <t>16,15; 30,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,04; 26,15</t>
+          <t>12,71; 24,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 40,58</t>
+          <t>24,32; 40,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 34,36</t>
+          <t>24,44; 40,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,69; 25,25</t>
+          <t>25,3; 41,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,05; 24,87</t>
+          <t>20,81; 35,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,5; 39,79</t>
+          <t>15,19; 25,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,25; 28,59</t>
+          <t>14,62; 26,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 25,81</t>
+          <t>36,16; 54,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,45; 23,29</t>
+          <t>21,92; 39,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,3; 37,41</t>
+          <t>30,26; 46,09</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 27,86</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 25,59</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>15,27; 24,58</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>33,16; 46,11</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>25,53; 37,42</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>30,57; 41,86</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>23,93%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>25,98%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,52%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>26,31%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>22,68%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>22,11%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>19,39%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>25,13%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>28,58%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,55; 22,32</t>
+          <t>16,25; 21,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,16</t>
+          <t>15,21; 20,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,11</t>
+          <t>13,74; 18,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,23; 27,28</t>
+          <t>22,5; 28,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,58; 28,59</t>
+          <t>20,97; 27,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,58; 28,77</t>
+          <t>24,08; 30,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,1; 24,52</t>
+          <t>23,52; 28,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,5; 29,25</t>
+          <t>24,36; 28,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,84; 24,73</t>
+          <t>20,75; 24,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,6; 23,88</t>
+          <t>28,76; 34,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,73; 21,25</t>
+          <t>23,71; 29,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,28; 27,54</t>
+          <t>27,18; 33,06</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 24,33</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 23,7</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 21,2</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>26,48; 30,79</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 27,2</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>26,68; 30,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>57812</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36122</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20873</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>49500</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6148</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7502</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52357</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37557</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35513</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>56846</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>110169</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>73680</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>56386</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8639</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35665; 88726</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18602; 64935</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7292; 45302</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26538; 88072</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3412; 9872</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4901; 11520</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31625; 78718</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21569; 61400</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20067; 59998</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33359; 90945</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>946; 4569</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2455; 6953</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>71752; 148066</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>47593; 106371</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34652; 85391</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>71570; 160574</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5016; 12939</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8170; 16379</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>87912</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58917</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>68266</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>131416</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7068</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8280</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100833</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>139961</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>108194</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>129677</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6937</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7643</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>188745</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>198877</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>176460</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>261093</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>14004</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>15923</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58708; 124146</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33744; 90180</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38656; 138843</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>85736; 208061</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4250; 11034</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5236; 12285</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>74204; 135785</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>105890; 170301</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>83263; 136984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>97261; 168704</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4636; 9954</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5468; 10733</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>147186; 235505</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>158681; 240715</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>136123; 246714</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>194393; 340171</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10079; 18679</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>11923; 20543</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>180447</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>143952</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>128268</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>203803</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13378</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15297</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>217464</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>204493</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>181568</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>176200</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15796</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16404</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>397911</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>348446</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>309836</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>380002</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>29174</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>31701</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>140635; 231679</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>108319; 193378</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>88941; 185335</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>161159; 253310</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10212; 17303</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11364; 19949</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>182786; 255511</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>174222; 237704</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>153468; 211325</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>143343; 213468</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12818; 18876</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13063; 19898</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>338280; 461270</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>296275; 405452</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>263716; 371625</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>323352; 439358</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>24816; 34253</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>26623; 37075</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>120194</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>122146</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>121710</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>147100</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15951</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18751</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>201493</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>238838</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>200397</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>236122</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16206</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19891</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>321687</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>360984</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>322107</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>383222</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>32156</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>38642</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>88471; 163159</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>94400; 162424</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93052; 160436</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>113744; 182173</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12392; 19922</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15345; 22905</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>164696; 238205</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>206174; 275139</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>172796; 230131</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>196972; 271417</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13319; 19484</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16701; 23245</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>274860; 374156</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>314720; 402744</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>280626; 370742</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>330260; 437133</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>26841; 37168</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>34224; 43891</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>99048</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>104293</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>99830</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>146947</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13392</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15375</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>156278</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>163870</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>141864</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>200510</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17657</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17449</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>255326</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>268163</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>241694</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>347457</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>31050</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>32824</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>72930; 130381</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81996; 131274</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>76093; 129745</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>115034; 181734</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10638; 16639</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12609; 18650</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>126754; 189074</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>134885; 195285</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>115264; 171658</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>160452; 238850</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14348; 20853</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14340; 20680</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>213638; 303311</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>233335; 307772</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>205630; 281638</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>301269; 401902</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>26975; 35730</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>28665; 37650</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>86049</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>107973</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>92206</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>174607</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14067</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13938</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>185679</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>124710</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>131574</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>312673</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>18913</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22892</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>271728</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>232683</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>223780</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>487280</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>32980</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>36830</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55902; 142898</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>77853; 148702</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>63650; 124135</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>131555; 219979</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10838; 17976</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10651; 17486</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>143911; 242163</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>94442; 160817</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>97409; 179147</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>250757; 379705</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>13335; 24209</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18163; 27664</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>215479; 337462</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>190123; 282505</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>178150; 286777</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>409311; 569144</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>26853; 39363</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>31216; 42751</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>438.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>664.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>645.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>631463</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>573404</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>531153</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>853371</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>70004</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>79144</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>914104</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>909430</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>799109</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1112027</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>78000</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>88474</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1545567</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1482833</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1330262</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1965398</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>148004</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>167618</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>545710; 734856</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>497030; 656324</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>455425; 628308</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>756014; 964592</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>61339; 79697</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>69761; 87819</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>832849; 1012384</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>840049; 986927</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>732344; 874103</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1014683; 1224707</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>70292; 87029</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>80688; 98141</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1423364; 1678669</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1367943; 1591538</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1218601; 1450967</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1823719; 2120455</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>133553; 160197</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>156455; 180091</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
